--- a/resource/主角/物品表.xlsx
+++ b/resource/主角/物品表.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20910"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="13770" windowHeight="9840"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14520"/>
   </bookViews>
   <sheets>
-    <sheet name="正式物品" sheetId="2" r:id="rId1"/>
+    <sheet name="Goods" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -154,7 +159,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">普通物品
+          <t xml:space="preserve">资源
 </t>
         </r>
         <r>
@@ -176,7 +181,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">资源
+          <t xml:space="preserve">普通物品
 </t>
         </r>
         <r>
@@ -199,18 +204,6 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">特殊物品
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
 </t>
         </r>
       </text>
@@ -272,31 +265,17 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0">
+    <comment ref="H1" authorId="0">
       <text>
         <r>
           <rPr>
+            <b/>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">1. 
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>1</t>
+          <t xml:space="preserve">1 </t>
         </r>
         <r>
           <rPr>
@@ -307,7 +286,8 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>成长值</t>
+          <t xml:space="preserve">能使用
+</t>
         </r>
         <r>
           <rPr>
@@ -317,7 +297,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">      2</t>
+          <t xml:space="preserve">2 </t>
         </r>
         <r>
           <rPr>
@@ -328,504 +308,17 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">力量
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
+          <t>不能使用</t>
+        </r>
+        <r>
+          <rPr>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>3</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>智力</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">         4</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">技巧
+          <t xml:space="preserve">
 </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>5</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>物理攻击</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">  6</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">物理防御
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>7</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>技能攻击</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">  8</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">生命
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>9</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>速度</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">        10</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">生产力
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>11</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>感知</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">     12</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">命中
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>13</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>闪避</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">     14</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">格挡
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>15</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>穿透</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">      16</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>暴击</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">     17</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>韧性</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">      18</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">反击
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>19</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">初始怒气
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>20</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">眩晕抗性
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>21</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">催眠抗性
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>22</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">中毒抗性
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>23</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">虚弱抗性
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>24</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">诅咒抗性
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>25</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>技能防御</t>
         </r>
       </text>
     </comment>
@@ -834,29 +327,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
   <si>
     <t>物品类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>增加属性3类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>属性1数值</t>
-  </si>
-  <si>
-    <t>属性2数值</t>
-  </si>
-  <si>
-    <t>属性3数值</t>
-  </si>
-  <si>
-    <t>物品ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -877,67 +353,99 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>增加属性1类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>增加属性2类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金币</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>铁矿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>木材</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>石油</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>魔晶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宝石</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>停战协议</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生产BUFF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源箱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>能否使用</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>使用效果类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>效果数值</t>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#物品名称_金币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#物品名称_铁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#物品名称_木材</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#物品名称_魔晶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#物品名称_宝石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#物品名称_魔油</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>good_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>color</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>des</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>can_use</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>use_effect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>short</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -994,19 +502,31 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1018,8 +538,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1063,12 +589,14 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+  <cellStyles count="3">
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1151,7 +679,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="7DC752"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1427,302 +955,284 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R96"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K98"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="8.5" style="11" customWidth="1"/>
-    <col min="2" max="2" width="19.875" style="7" customWidth="1"/>
-    <col min="3" max="3" width="8.25" style="7" customWidth="1"/>
-    <col min="4" max="5" width="9" style="7"/>
-    <col min="6" max="6" width="18.5" style="7" customWidth="1"/>
-    <col min="7" max="12" width="11" style="7" customWidth="1"/>
-    <col min="13" max="13" width="9" style="7" customWidth="1"/>
-    <col min="14" max="14" width="7.125" style="7" customWidth="1"/>
-    <col min="15" max="15" width="9.75" style="7" customWidth="1"/>
-    <col min="16" max="16" width="7.125" style="7" customWidth="1"/>
-    <col min="17" max="17" width="9.75" style="7" customWidth="1"/>
-    <col min="18" max="18" width="7.125" style="7" customWidth="1"/>
-    <col min="19" max="16384" width="9" style="7"/>
+    <col min="2" max="2" width="19.83203125" style="7" customWidth="1"/>
+    <col min="3" max="3" width="8.1640625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" style="7" customWidth="1"/>
+    <col min="6" max="6" width="16" style="7" customWidth="1"/>
+    <col min="7" max="7" width="11" style="7" customWidth="1"/>
+    <col min="8" max="8" width="10.33203125" style="7" customWidth="1"/>
+    <col min="9" max="9" width="15.1640625" style="7" customWidth="1"/>
+    <col min="10" max="11" width="11" style="7" customWidth="1"/>
+    <col min="12" max="16384" width="8.83203125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
+    <row r="1" spans="1:11" s="2" customFormat="1" ht="40" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+    </row>
+    <row r="2" spans="1:11" s="2" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+    </row>
+    <row r="3" spans="1:11" s="2" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4">
+        <v>1000101</v>
+      </c>
+      <c r="B4" t="s">
         <v>8</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="O1" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="P1" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="R1" s="13" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="5">
-        <v>1</v>
-      </c>
-      <c r="D2" s="5">
-        <v>2</v>
-      </c>
-      <c r="E2" s="5">
-        <v>1</v>
-      </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-    </row>
-    <row r="3" spans="1:18">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="5">
-        <v>1</v>
-      </c>
-      <c r="D3" s="5">
-        <v>2</v>
-      </c>
-      <c r="E3" s="5">
-        <v>1</v>
-      </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-    </row>
-    <row r="4" spans="1:18">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
       </c>
       <c r="C4" s="5">
         <v>1</v>
       </c>
       <c r="D4" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4" s="5">
         <v>1</v>
       </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
+      <c r="F4"/>
+      <c r="G4">
+        <v>21000101</v>
+      </c>
+      <c r="H4" s="13">
+        <v>2</v>
+      </c>
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
-    </row>
-    <row r="5" spans="1:18">
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5">
-        <v>4</v>
+        <v>1000201</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C5" s="5">
         <v>1</v>
       </c>
       <c r="D5" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E5" s="5">
         <v>1</v>
       </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
+      <c r="F5"/>
+      <c r="G5">
+        <v>21000201</v>
+      </c>
+      <c r="H5" s="13">
+        <v>2</v>
+      </c>
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
       <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
-    </row>
-    <row r="6" spans="1:18">
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6">
-        <v>5</v>
+        <v>1000301</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C6" s="5">
         <v>1</v>
       </c>
       <c r="D6" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E6" s="5">
         <v>1</v>
       </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
+      <c r="F6"/>
+      <c r="G6">
+        <v>21000301</v>
+      </c>
+      <c r="H6" s="13">
+        <v>2</v>
+      </c>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-    </row>
-    <row r="7" spans="1:18">
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7">
-        <v>6</v>
+        <v>1000401</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C7" s="5">
         <v>1</v>
       </c>
       <c r="D7" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E7" s="5">
         <v>1</v>
       </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
+      <c r="F7"/>
+      <c r="G7">
+        <v>21000401</v>
+      </c>
+      <c r="H7" s="13">
+        <v>2</v>
+      </c>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
-    </row>
-    <row r="8" spans="1:18">
-      <c r="A8" s="2"/>
-      <c r="C8"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8">
+        <v>1000501</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="5">
+        <v>1</v>
+      </c>
+      <c r="D8" s="5">
+        <v>1</v>
+      </c>
+      <c r="E8" s="5">
+        <v>1</v>
+      </c>
+      <c r="F8"/>
+      <c r="G8">
+        <v>21000501</v>
+      </c>
+      <c r="H8" s="13">
+        <v>2</v>
+      </c>
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="5"/>
-    </row>
-    <row r="9" spans="1:18">
-      <c r="A9" s="2"/>
-      <c r="B9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9">
+        <v>1000601</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="5">
+        <v>1</v>
+      </c>
+      <c r="D9" s="5">
+        <v>1</v>
+      </c>
+      <c r="E9" s="5">
+        <v>1</v>
+      </c>
+      <c r="F9"/>
+      <c r="G9">
+        <v>21000601</v>
+      </c>
+      <c r="H9" s="13">
+        <v>2</v>
+      </c>
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="5"/>
-    </row>
-    <row r="10" spans="1:18">
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="2"/>
       <c r="C10"/>
       <c r="E10" s="5"/>
@@ -1732,19 +1242,9 @@
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
       <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="5"/>
-    </row>
-    <row r="11" spans="1:18">
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="2"/>
-      <c r="B11" s="7" t="s">
-        <v>20</v>
-      </c>
       <c r="C11"/>
       <c r="E11" s="5"/>
       <c r="F11" s="4"/>
@@ -1753,15 +1253,8 @@
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="5"/>
-    </row>
-    <row r="12" spans="1:18">
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="2"/>
       <c r="C12"/>
       <c r="E12" s="5"/>
@@ -1771,19 +1264,9 @@
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
       <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="5"/>
-      <c r="R12" s="5"/>
-    </row>
-    <row r="13" spans="1:18">
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="2"/>
-      <c r="B13" s="7" t="s">
-        <v>21</v>
-      </c>
       <c r="C13"/>
       <c r="E13" s="5"/>
       <c r="F13" s="4"/>
@@ -1792,19 +1275,10 @@
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="5"/>
-    </row>
-    <row r="14" spans="1:18">
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="2"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
+      <c r="C14"/>
       <c r="E14" s="5"/>
       <c r="F14" s="4"/>
       <c r="G14" s="6"/>
@@ -1812,19 +1286,10 @@
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
       <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="5"/>
-    </row>
-    <row r="15" spans="1:18">
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="2"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
+      <c r="C15"/>
       <c r="E15" s="5"/>
       <c r="F15" s="4"/>
       <c r="G15" s="6"/>
@@ -1832,15 +1297,8 @@
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="5"/>
-      <c r="R15" s="5"/>
-    </row>
-    <row r="16" spans="1:18">
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="2"/>
       <c r="B16" s="4"/>
       <c r="C16" s="5"/>
@@ -1852,15 +1310,8 @@
       <c r="I16" s="6"/>
       <c r="J16" s="6"/>
       <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="5"/>
-      <c r="R16" s="5"/>
-    </row>
-    <row r="17" spans="1:18">
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="2"/>
       <c r="B17" s="4"/>
       <c r="C17" s="5"/>
@@ -1872,15 +1323,8 @@
       <c r="I17" s="6"/>
       <c r="J17" s="6"/>
       <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="5"/>
-      <c r="R17" s="5"/>
-    </row>
-    <row r="18" spans="1:18">
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="2"/>
       <c r="B18" s="4"/>
       <c r="C18" s="5"/>
@@ -1892,15 +1336,8 @@
       <c r="I18" s="6"/>
       <c r="J18" s="6"/>
       <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
-      <c r="P18" s="5"/>
-      <c r="Q18" s="5"/>
-      <c r="R18" s="5"/>
-    </row>
-    <row r="19" spans="1:18">
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="2"/>
       <c r="B19" s="4"/>
       <c r="C19" s="5"/>
@@ -1912,15 +1349,8 @@
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="5"/>
-      <c r="P19" s="5"/>
-      <c r="Q19" s="5"/>
-      <c r="R19" s="5"/>
-    </row>
-    <row r="20" spans="1:18">
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="2"/>
       <c r="B20" s="4"/>
       <c r="C20" s="5"/>
@@ -1932,15 +1362,8 @@
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
       <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="5"/>
-      <c r="P20" s="5"/>
-      <c r="Q20" s="5"/>
-      <c r="R20" s="5"/>
-    </row>
-    <row r="21" spans="1:18">
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="2"/>
       <c r="B21" s="4"/>
       <c r="C21" s="5"/>
@@ -1952,15 +1375,8 @@
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
       <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="5"/>
-      <c r="P21" s="5"/>
-      <c r="Q21" s="5"/>
-      <c r="R21" s="5"/>
-    </row>
-    <row r="22" spans="1:18">
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="2"/>
       <c r="B22" s="4"/>
       <c r="C22" s="5"/>
@@ -1972,15 +1388,8 @@
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
       <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="4"/>
-      <c r="O22" s="5"/>
-      <c r="P22" s="5"/>
-      <c r="Q22" s="5"/>
-      <c r="R22" s="5"/>
-    </row>
-    <row r="23" spans="1:18">
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="2"/>
       <c r="B23" s="4"/>
       <c r="C23" s="5"/>
@@ -1992,15 +1401,8 @@
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
       <c r="K23" s="6"/>
-      <c r="L23" s="6"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="4"/>
-      <c r="O23" s="5"/>
-      <c r="P23" s="5"/>
-      <c r="Q23" s="5"/>
-      <c r="R23" s="5"/>
-    </row>
-    <row r="24" spans="1:18">
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="2"/>
       <c r="B24" s="4"/>
       <c r="C24" s="5"/>
@@ -2012,15 +1414,8 @@
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
       <c r="K24" s="6"/>
-      <c r="L24" s="6"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="4"/>
-      <c r="O24" s="5"/>
-      <c r="P24" s="5"/>
-      <c r="Q24" s="5"/>
-      <c r="R24" s="5"/>
-    </row>
-    <row r="25" spans="1:18">
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="2"/>
       <c r="B25" s="4"/>
       <c r="C25" s="5"/>
@@ -2032,15 +1427,8 @@
       <c r="I25" s="6"/>
       <c r="J25" s="6"/>
       <c r="K25" s="6"/>
-      <c r="L25" s="6"/>
-      <c r="M25" s="5"/>
-      <c r="N25" s="4"/>
-      <c r="O25" s="5"/>
-      <c r="P25" s="5"/>
-      <c r="Q25" s="5"/>
-      <c r="R25" s="5"/>
-    </row>
-    <row r="26" spans="1:18">
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="2"/>
       <c r="B26" s="4"/>
       <c r="C26" s="5"/>
@@ -2052,15 +1440,8 @@
       <c r="I26" s="6"/>
       <c r="J26" s="6"/>
       <c r="K26" s="6"/>
-      <c r="L26" s="6"/>
-      <c r="M26" s="5"/>
-      <c r="N26" s="4"/>
-      <c r="O26" s="5"/>
-      <c r="P26" s="5"/>
-      <c r="Q26" s="5"/>
-      <c r="R26" s="5"/>
-    </row>
-    <row r="27" spans="1:18">
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="2"/>
       <c r="B27" s="4"/>
       <c r="C27" s="5"/>
@@ -2072,15 +1453,8 @@
       <c r="I27" s="6"/>
       <c r="J27" s="6"/>
       <c r="K27" s="6"/>
-      <c r="L27" s="6"/>
-      <c r="M27" s="5"/>
-      <c r="N27" s="4"/>
-      <c r="O27" s="5"/>
-      <c r="P27" s="5"/>
-      <c r="Q27" s="5"/>
-      <c r="R27" s="5"/>
-    </row>
-    <row r="28" spans="1:18">
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="2"/>
       <c r="B28" s="4"/>
       <c r="C28" s="5"/>
@@ -2092,15 +1466,8 @@
       <c r="I28" s="6"/>
       <c r="J28" s="6"/>
       <c r="K28" s="6"/>
-      <c r="L28" s="6"/>
-      <c r="M28" s="5"/>
-      <c r="N28" s="4"/>
-      <c r="O28" s="5"/>
-      <c r="P28" s="5"/>
-      <c r="Q28" s="5"/>
-      <c r="R28" s="5"/>
-    </row>
-    <row r="29" spans="1:18">
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="2"/>
       <c r="B29" s="4"/>
       <c r="C29" s="5"/>
@@ -2112,15 +1479,8 @@
       <c r="I29" s="6"/>
       <c r="J29" s="6"/>
       <c r="K29" s="6"/>
-      <c r="L29" s="6"/>
-      <c r="M29" s="5"/>
-      <c r="N29" s="4"/>
-      <c r="O29" s="5"/>
-      <c r="P29" s="5"/>
-      <c r="Q29" s="5"/>
-      <c r="R29" s="5"/>
-    </row>
-    <row r="30" spans="1:18">
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="2"/>
       <c r="B30" s="4"/>
       <c r="C30" s="5"/>
@@ -2132,15 +1492,8 @@
       <c r="I30" s="6"/>
       <c r="J30" s="6"/>
       <c r="K30" s="6"/>
-      <c r="L30" s="6"/>
-      <c r="M30" s="5"/>
-      <c r="N30" s="4"/>
-      <c r="O30" s="5"/>
-      <c r="P30" s="5"/>
-      <c r="Q30" s="5"/>
-      <c r="R30" s="5"/>
-    </row>
-    <row r="31" spans="1:18">
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="2"/>
       <c r="B31" s="4"/>
       <c r="C31" s="5"/>
@@ -2152,15 +1505,8 @@
       <c r="I31" s="6"/>
       <c r="J31" s="6"/>
       <c r="K31" s="6"/>
-      <c r="L31" s="6"/>
-      <c r="M31" s="5"/>
-      <c r="N31" s="4"/>
-      <c r="O31" s="5"/>
-      <c r="P31" s="5"/>
-      <c r="Q31" s="5"/>
-      <c r="R31" s="5"/>
-    </row>
-    <row r="32" spans="1:18">
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="2"/>
       <c r="B32" s="4"/>
       <c r="C32" s="5"/>
@@ -2172,15 +1518,8 @@
       <c r="I32" s="6"/>
       <c r="J32" s="6"/>
       <c r="K32" s="6"/>
-      <c r="L32" s="6"/>
-      <c r="M32" s="5"/>
-      <c r="N32" s="5"/>
-      <c r="O32" s="5"/>
-      <c r="P32" s="5"/>
-      <c r="Q32" s="5"/>
-      <c r="R32" s="5"/>
-    </row>
-    <row r="33" spans="1:18">
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="2"/>
       <c r="B33" s="4"/>
       <c r="C33" s="5"/>
@@ -2192,15 +1531,8 @@
       <c r="I33" s="6"/>
       <c r="J33" s="6"/>
       <c r="K33" s="6"/>
-      <c r="L33" s="6"/>
-      <c r="M33" s="5"/>
-      <c r="N33" s="5"/>
-      <c r="O33" s="5"/>
-      <c r="P33" s="5"/>
-      <c r="Q33" s="5"/>
-      <c r="R33" s="5"/>
-    </row>
-    <row r="34" spans="1:18">
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="2"/>
       <c r="B34" s="4"/>
       <c r="C34" s="5"/>
@@ -2212,15 +1544,8 @@
       <c r="I34" s="6"/>
       <c r="J34" s="6"/>
       <c r="K34" s="6"/>
-      <c r="L34" s="6"/>
-      <c r="M34" s="5"/>
-      <c r="N34" s="5"/>
-      <c r="O34" s="5"/>
-      <c r="P34" s="5"/>
-      <c r="Q34" s="5"/>
-      <c r="R34" s="5"/>
-    </row>
-    <row r="35" spans="1:18">
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="2"/>
       <c r="B35" s="4"/>
       <c r="C35" s="5"/>
@@ -2232,15 +1557,8 @@
       <c r="I35" s="6"/>
       <c r="J35" s="6"/>
       <c r="K35" s="6"/>
-      <c r="L35" s="6"/>
-      <c r="M35" s="5"/>
-      <c r="N35" s="5"/>
-      <c r="O35" s="5"/>
-      <c r="P35" s="5"/>
-      <c r="Q35" s="5"/>
-      <c r="R35" s="5"/>
-    </row>
-    <row r="36" spans="1:18">
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="2"/>
       <c r="B36" s="4"/>
       <c r="C36" s="5"/>
@@ -2252,15 +1570,8 @@
       <c r="I36" s="6"/>
       <c r="J36" s="6"/>
       <c r="K36" s="6"/>
-      <c r="L36" s="6"/>
-      <c r="M36" s="5"/>
-      <c r="N36" s="5"/>
-      <c r="O36" s="5"/>
-      <c r="P36" s="5"/>
-      <c r="Q36" s="5"/>
-      <c r="R36" s="5"/>
-    </row>
-    <row r="37" spans="1:18">
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="2"/>
       <c r="B37" s="4"/>
       <c r="C37" s="5"/>
@@ -2272,15 +1583,8 @@
       <c r="I37" s="6"/>
       <c r="J37" s="6"/>
       <c r="K37" s="6"/>
-      <c r="L37" s="6"/>
-      <c r="M37" s="5"/>
-      <c r="N37" s="5"/>
-      <c r="O37" s="5"/>
-      <c r="P37" s="5"/>
-      <c r="Q37" s="5"/>
-      <c r="R37" s="5"/>
-    </row>
-    <row r="38" spans="1:18">
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="2"/>
       <c r="B38" s="4"/>
       <c r="C38" s="5"/>
@@ -2292,15 +1596,8 @@
       <c r="I38" s="6"/>
       <c r="J38" s="6"/>
       <c r="K38" s="6"/>
-      <c r="L38" s="6"/>
-      <c r="M38" s="5"/>
-      <c r="N38" s="5"/>
-      <c r="O38" s="5"/>
-      <c r="P38" s="5"/>
-      <c r="Q38" s="5"/>
-      <c r="R38" s="5"/>
-    </row>
-    <row r="39" spans="1:18">
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="2"/>
       <c r="B39" s="4"/>
       <c r="C39" s="5"/>
@@ -2312,15 +1609,8 @@
       <c r="I39" s="6"/>
       <c r="J39" s="6"/>
       <c r="K39" s="6"/>
-      <c r="L39" s="6"/>
-      <c r="M39" s="5"/>
-      <c r="N39" s="5"/>
-      <c r="O39" s="5"/>
-      <c r="P39" s="5"/>
-      <c r="Q39" s="5"/>
-      <c r="R39" s="5"/>
-    </row>
-    <row r="40" spans="1:18">
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="2"/>
       <c r="B40" s="4"/>
       <c r="C40" s="5"/>
@@ -2332,15 +1622,8 @@
       <c r="I40" s="6"/>
       <c r="J40" s="6"/>
       <c r="K40" s="6"/>
-      <c r="L40" s="6"/>
-      <c r="M40" s="5"/>
-      <c r="N40" s="5"/>
-      <c r="O40" s="5"/>
-      <c r="P40" s="5"/>
-      <c r="Q40" s="5"/>
-      <c r="R40" s="5"/>
-    </row>
-    <row r="41" spans="1:18">
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="2"/>
       <c r="B41" s="4"/>
       <c r="C41" s="5"/>
@@ -2352,15 +1635,8 @@
       <c r="I41" s="6"/>
       <c r="J41" s="6"/>
       <c r="K41" s="6"/>
-      <c r="L41" s="6"/>
-      <c r="M41" s="5"/>
-      <c r="N41" s="5"/>
-      <c r="O41" s="5"/>
-      <c r="P41" s="5"/>
-      <c r="Q41" s="5"/>
-      <c r="R41" s="5"/>
-    </row>
-    <row r="42" spans="1:18">
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="2"/>
       <c r="B42" s="4"/>
       <c r="C42" s="5"/>
@@ -2372,15 +1648,8 @@
       <c r="I42" s="6"/>
       <c r="J42" s="6"/>
       <c r="K42" s="6"/>
-      <c r="L42" s="6"/>
-      <c r="M42" s="5"/>
-      <c r="N42" s="5"/>
-      <c r="O42" s="5"/>
-      <c r="P42" s="5"/>
-      <c r="Q42" s="5"/>
-      <c r="R42" s="5"/>
-    </row>
-    <row r="43" spans="1:18">
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="2"/>
       <c r="B43" s="4"/>
       <c r="C43" s="5"/>
@@ -2392,15 +1661,8 @@
       <c r="I43" s="6"/>
       <c r="J43" s="6"/>
       <c r="K43" s="6"/>
-      <c r="L43" s="6"/>
-      <c r="M43" s="5"/>
-      <c r="N43" s="5"/>
-      <c r="O43" s="5"/>
-      <c r="P43" s="5"/>
-      <c r="Q43" s="5"/>
-      <c r="R43" s="5"/>
-    </row>
-    <row r="44" spans="1:18">
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="2"/>
       <c r="B44" s="4"/>
       <c r="C44" s="5"/>
@@ -2412,15 +1674,8 @@
       <c r="I44" s="6"/>
       <c r="J44" s="6"/>
       <c r="K44" s="6"/>
-      <c r="L44" s="6"/>
-      <c r="M44" s="5"/>
-      <c r="N44" s="5"/>
-      <c r="O44" s="5"/>
-      <c r="P44" s="5"/>
-      <c r="Q44" s="5"/>
-      <c r="R44" s="5"/>
-    </row>
-    <row r="45" spans="1:18">
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="2"/>
       <c r="B45" s="4"/>
       <c r="C45" s="5"/>
@@ -2432,15 +1687,8 @@
       <c r="I45" s="6"/>
       <c r="J45" s="6"/>
       <c r="K45" s="6"/>
-      <c r="L45" s="6"/>
-      <c r="M45" s="5"/>
-      <c r="N45" s="5"/>
-      <c r="O45" s="5"/>
-      <c r="P45" s="5"/>
-      <c r="Q45" s="5"/>
-      <c r="R45" s="5"/>
-    </row>
-    <row r="46" spans="1:18">
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="2"/>
       <c r="B46" s="4"/>
       <c r="C46" s="5"/>
@@ -2452,15 +1700,8 @@
       <c r="I46" s="6"/>
       <c r="J46" s="6"/>
       <c r="K46" s="6"/>
-      <c r="L46" s="6"/>
-      <c r="M46" s="5"/>
-      <c r="N46" s="5"/>
-      <c r="O46" s="5"/>
-      <c r="P46" s="5"/>
-      <c r="Q46" s="5"/>
-      <c r="R46" s="5"/>
-    </row>
-    <row r="47" spans="1:18">
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" s="2"/>
       <c r="B47" s="4"/>
       <c r="C47" s="5"/>
@@ -2472,15 +1713,8 @@
       <c r="I47" s="6"/>
       <c r="J47" s="6"/>
       <c r="K47" s="6"/>
-      <c r="L47" s="6"/>
-      <c r="M47" s="5"/>
-      <c r="N47" s="5"/>
-      <c r="O47" s="5"/>
-      <c r="P47" s="5"/>
-      <c r="Q47" s="5"/>
-      <c r="R47" s="5"/>
-    </row>
-    <row r="48" spans="1:18">
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" s="2"/>
       <c r="B48" s="4"/>
       <c r="C48" s="5"/>
@@ -2492,15 +1726,8 @@
       <c r="I48" s="6"/>
       <c r="J48" s="6"/>
       <c r="K48" s="6"/>
-      <c r="L48" s="6"/>
-      <c r="M48" s="5"/>
-      <c r="N48" s="5"/>
-      <c r="O48" s="5"/>
-      <c r="P48" s="5"/>
-      <c r="Q48" s="5"/>
-      <c r="R48" s="5"/>
-    </row>
-    <row r="49" spans="1:18">
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" s="2"/>
       <c r="B49" s="4"/>
       <c r="C49" s="5"/>
@@ -2512,15 +1739,8 @@
       <c r="I49" s="6"/>
       <c r="J49" s="6"/>
       <c r="K49" s="6"/>
-      <c r="L49" s="6"/>
-      <c r="M49" s="5"/>
-      <c r="N49" s="5"/>
-      <c r="O49" s="5"/>
-      <c r="P49" s="5"/>
-      <c r="Q49" s="5"/>
-      <c r="R49" s="5"/>
-    </row>
-    <row r="50" spans="1:18">
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" s="2"/>
       <c r="B50" s="4"/>
       <c r="C50" s="5"/>
@@ -2532,15 +1752,8 @@
       <c r="I50" s="6"/>
       <c r="J50" s="6"/>
       <c r="K50" s="6"/>
-      <c r="L50" s="6"/>
-      <c r="M50" s="5"/>
-      <c r="N50" s="5"/>
-      <c r="O50" s="5"/>
-      <c r="P50" s="5"/>
-      <c r="Q50" s="5"/>
-      <c r="R50" s="5"/>
-    </row>
-    <row r="51" spans="1:18">
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" s="2"/>
       <c r="B51" s="4"/>
       <c r="C51" s="5"/>
@@ -2552,55 +1765,34 @@
       <c r="I51" s="6"/>
       <c r="J51" s="6"/>
       <c r="K51" s="6"/>
-      <c r="L51" s="6"/>
-      <c r="M51" s="5"/>
-      <c r="N51" s="5"/>
-      <c r="O51" s="5"/>
-      <c r="P51" s="5"/>
-      <c r="Q51" s="5"/>
-      <c r="R51" s="5"/>
-    </row>
-    <row r="52" spans="1:18">
-      <c r="A52" s="8"/>
-      <c r="B52" s="9"/>
+    </row>
+    <row r="52" spans="1:11">
+      <c r="A52" s="2"/>
+      <c r="B52" s="4"/>
       <c r="C52" s="5"/>
       <c r="D52" s="5"/>
       <c r="E52" s="5"/>
-      <c r="F52" s="9"/>
-      <c r="G52" s="10"/>
-      <c r="H52" s="10"/>
-      <c r="I52" s="10"/>
-      <c r="J52" s="10"/>
-      <c r="K52" s="10"/>
-      <c r="L52" s="10"/>
-      <c r="M52" s="4"/>
-      <c r="N52" s="5"/>
-      <c r="O52" s="5"/>
-      <c r="P52" s="5"/>
-      <c r="Q52" s="5"/>
-      <c r="R52" s="5"/>
-    </row>
-    <row r="53" spans="1:18">
-      <c r="A53" s="8"/>
-      <c r="B53" s="9"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="6"/>
+      <c r="H52" s="6"/>
+      <c r="I52" s="6"/>
+      <c r="J52" s="6"/>
+      <c r="K52" s="6"/>
+    </row>
+    <row r="53" spans="1:11">
+      <c r="A53" s="2"/>
+      <c r="B53" s="4"/>
       <c r="C53" s="5"/>
       <c r="D53" s="5"/>
       <c r="E53" s="5"/>
-      <c r="F53" s="9"/>
-      <c r="G53" s="10"/>
-      <c r="H53" s="10"/>
-      <c r="I53" s="10"/>
-      <c r="J53" s="10"/>
-      <c r="K53" s="10"/>
-      <c r="L53" s="10"/>
-      <c r="M53" s="4"/>
-      <c r="N53" s="5"/>
-      <c r="O53" s="5"/>
-      <c r="P53" s="5"/>
-      <c r="Q53" s="5"/>
-      <c r="R53" s="5"/>
-    </row>
-    <row r="54" spans="1:18">
+      <c r="F53" s="4"/>
+      <c r="G53" s="6"/>
+      <c r="H53" s="6"/>
+      <c r="I53" s="6"/>
+      <c r="J53" s="6"/>
+      <c r="K53" s="6"/>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" s="8"/>
       <c r="B54" s="9"/>
       <c r="C54" s="5"/>
@@ -2612,15 +1804,8 @@
       <c r="I54" s="10"/>
       <c r="J54" s="10"/>
       <c r="K54" s="10"/>
-      <c r="L54" s="10"/>
-      <c r="M54" s="4"/>
-      <c r="N54" s="5"/>
-      <c r="O54" s="5"/>
-      <c r="P54" s="5"/>
-      <c r="Q54" s="5"/>
-      <c r="R54" s="5"/>
-    </row>
-    <row r="55" spans="1:18">
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" s="8"/>
       <c r="B55" s="9"/>
       <c r="C55" s="5"/>
@@ -2632,15 +1817,8 @@
       <c r="I55" s="10"/>
       <c r="J55" s="10"/>
       <c r="K55" s="10"/>
-      <c r="L55" s="10"/>
-      <c r="M55" s="4"/>
-      <c r="N55" s="5"/>
-      <c r="O55" s="5"/>
-      <c r="P55" s="5"/>
-      <c r="Q55" s="5"/>
-      <c r="R55" s="5"/>
-    </row>
-    <row r="56" spans="1:18">
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" s="8"/>
       <c r="B56" s="9"/>
       <c r="C56" s="5"/>
@@ -2652,15 +1830,8 @@
       <c r="I56" s="10"/>
       <c r="J56" s="10"/>
       <c r="K56" s="10"/>
-      <c r="L56" s="10"/>
-      <c r="M56" s="4"/>
-      <c r="N56" s="5"/>
-      <c r="O56" s="5"/>
-      <c r="P56" s="5"/>
-      <c r="Q56" s="5"/>
-      <c r="R56" s="5"/>
-    </row>
-    <row r="57" spans="1:18">
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" s="8"/>
       <c r="B57" s="9"/>
       <c r="C57" s="5"/>
@@ -2672,15 +1843,8 @@
       <c r="I57" s="10"/>
       <c r="J57" s="10"/>
       <c r="K57" s="10"/>
-      <c r="L57" s="10"/>
-      <c r="M57" s="4"/>
-      <c r="N57" s="5"/>
-      <c r="O57" s="5"/>
-      <c r="P57" s="5"/>
-      <c r="Q57" s="5"/>
-      <c r="R57" s="5"/>
-    </row>
-    <row r="58" spans="1:18">
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" s="8"/>
       <c r="B58" s="9"/>
       <c r="C58" s="5"/>
@@ -2692,15 +1856,8 @@
       <c r="I58" s="10"/>
       <c r="J58" s="10"/>
       <c r="K58" s="10"/>
-      <c r="L58" s="10"/>
-      <c r="M58" s="4"/>
-      <c r="N58" s="5"/>
-      <c r="O58" s="5"/>
-      <c r="P58" s="5"/>
-      <c r="Q58" s="5"/>
-      <c r="R58" s="5"/>
-    </row>
-    <row r="59" spans="1:18">
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" s="8"/>
       <c r="B59" s="9"/>
       <c r="C59" s="5"/>
@@ -2712,15 +1869,8 @@
       <c r="I59" s="10"/>
       <c r="J59" s="10"/>
       <c r="K59" s="10"/>
-      <c r="L59" s="10"/>
-      <c r="M59" s="4"/>
-      <c r="N59" s="5"/>
-      <c r="O59" s="5"/>
-      <c r="P59" s="5"/>
-      <c r="Q59" s="5"/>
-      <c r="R59" s="5"/>
-    </row>
-    <row r="60" spans="1:18">
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" s="8"/>
       <c r="B60" s="9"/>
       <c r="C60" s="5"/>
@@ -2732,15 +1882,8 @@
       <c r="I60" s="10"/>
       <c r="J60" s="10"/>
       <c r="K60" s="10"/>
-      <c r="L60" s="10"/>
-      <c r="M60" s="4"/>
-      <c r="N60" s="5"/>
-      <c r="O60" s="5"/>
-      <c r="P60" s="5"/>
-      <c r="Q60" s="5"/>
-      <c r="R60" s="5"/>
-    </row>
-    <row r="61" spans="1:18">
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" s="8"/>
       <c r="B61" s="9"/>
       <c r="C61" s="5"/>
@@ -2752,55 +1895,34 @@
       <c r="I61" s="10"/>
       <c r="J61" s="10"/>
       <c r="K61" s="10"/>
-      <c r="L61" s="10"/>
-      <c r="M61" s="4"/>
-      <c r="N61" s="5"/>
-      <c r="O61" s="5"/>
-      <c r="P61" s="5"/>
-      <c r="Q61" s="5"/>
-      <c r="R61" s="5"/>
-    </row>
-    <row r="62" spans="1:18">
-      <c r="A62" s="2"/>
-      <c r="B62" s="4"/>
+    </row>
+    <row r="62" spans="1:11">
+      <c r="A62" s="8"/>
+      <c r="B62" s="9"/>
       <c r="C62" s="5"/>
       <c r="D62" s="5"/>
       <c r="E62" s="5"/>
-      <c r="F62" s="4"/>
-      <c r="G62" s="6"/>
-      <c r="H62" s="6"/>
-      <c r="I62" s="6"/>
-      <c r="J62" s="6"/>
-      <c r="K62" s="6"/>
-      <c r="L62" s="6"/>
-      <c r="M62" s="5"/>
-      <c r="N62" s="5"/>
-      <c r="O62" s="5"/>
-      <c r="P62" s="5"/>
-      <c r="Q62" s="5"/>
-      <c r="R62" s="5"/>
-    </row>
-    <row r="63" spans="1:18">
-      <c r="A63" s="2"/>
-      <c r="B63" s="4"/>
+      <c r="F62" s="9"/>
+      <c r="G62" s="10"/>
+      <c r="H62" s="10"/>
+      <c r="I62" s="10"/>
+      <c r="J62" s="10"/>
+      <c r="K62" s="10"/>
+    </row>
+    <row r="63" spans="1:11">
+      <c r="A63" s="8"/>
+      <c r="B63" s="9"/>
       <c r="C63" s="5"/>
       <c r="D63" s="5"/>
       <c r="E63" s="5"/>
-      <c r="F63" s="4"/>
-      <c r="G63" s="6"/>
-      <c r="H63" s="6"/>
-      <c r="I63" s="6"/>
-      <c r="J63" s="6"/>
-      <c r="K63" s="6"/>
-      <c r="L63" s="6"/>
-      <c r="M63" s="5"/>
-      <c r="N63" s="5"/>
-      <c r="O63" s="5"/>
-      <c r="P63" s="5"/>
-      <c r="Q63" s="5"/>
-      <c r="R63" s="5"/>
-    </row>
-    <row r="64" spans="1:18">
+      <c r="F63" s="9"/>
+      <c r="G63" s="10"/>
+      <c r="H63" s="10"/>
+      <c r="I63" s="10"/>
+      <c r="J63" s="10"/>
+      <c r="K63" s="10"/>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" s="2"/>
       <c r="B64" s="4"/>
       <c r="C64" s="5"/>
@@ -2812,15 +1934,8 @@
       <c r="I64" s="6"/>
       <c r="J64" s="6"/>
       <c r="K64" s="6"/>
-      <c r="L64" s="6"/>
-      <c r="M64" s="5"/>
-      <c r="N64" s="5"/>
-      <c r="O64" s="5"/>
-      <c r="P64" s="5"/>
-      <c r="Q64" s="5"/>
-      <c r="R64" s="5"/>
-    </row>
-    <row r="65" spans="1:18">
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" s="2"/>
       <c r="B65" s="4"/>
       <c r="C65" s="5"/>
@@ -2832,15 +1947,8 @@
       <c r="I65" s="6"/>
       <c r="J65" s="6"/>
       <c r="K65" s="6"/>
-      <c r="L65" s="6"/>
-      <c r="M65" s="5"/>
-      <c r="N65" s="5"/>
-      <c r="O65" s="5"/>
-      <c r="P65" s="5"/>
-      <c r="Q65" s="5"/>
-      <c r="R65" s="5"/>
-    </row>
-    <row r="66" spans="1:18">
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" s="2"/>
       <c r="B66" s="4"/>
       <c r="C66" s="5"/>
@@ -2852,15 +1960,8 @@
       <c r="I66" s="6"/>
       <c r="J66" s="6"/>
       <c r="K66" s="6"/>
-      <c r="L66" s="6"/>
-      <c r="M66" s="5"/>
-      <c r="N66" s="5"/>
-      <c r="O66" s="5"/>
-      <c r="P66" s="5"/>
-      <c r="Q66" s="5"/>
-      <c r="R66" s="5"/>
-    </row>
-    <row r="67" spans="1:18">
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" s="2"/>
       <c r="B67" s="4"/>
       <c r="C67" s="5"/>
@@ -2872,15 +1973,8 @@
       <c r="I67" s="6"/>
       <c r="J67" s="6"/>
       <c r="K67" s="6"/>
-      <c r="L67" s="6"/>
-      <c r="M67" s="5"/>
-      <c r="N67" s="5"/>
-      <c r="O67" s="5"/>
-      <c r="P67" s="5"/>
-      <c r="Q67" s="5"/>
-      <c r="R67" s="5"/>
-    </row>
-    <row r="68" spans="1:18">
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" s="2"/>
       <c r="B68" s="4"/>
       <c r="C68" s="5"/>
@@ -2892,15 +1986,8 @@
       <c r="I68" s="6"/>
       <c r="J68" s="6"/>
       <c r="K68" s="6"/>
-      <c r="L68" s="6"/>
-      <c r="M68" s="5"/>
-      <c r="N68" s="5"/>
-      <c r="O68" s="5"/>
-      <c r="P68" s="5"/>
-      <c r="Q68" s="5"/>
-      <c r="R68" s="5"/>
-    </row>
-    <row r="69" spans="1:18">
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69" s="2"/>
       <c r="B69" s="4"/>
       <c r="C69" s="5"/>
@@ -2912,15 +1999,8 @@
       <c r="I69" s="6"/>
       <c r="J69" s="6"/>
       <c r="K69" s="6"/>
-      <c r="L69" s="6"/>
-      <c r="M69" s="5"/>
-      <c r="N69" s="5"/>
-      <c r="O69" s="5"/>
-      <c r="P69" s="5"/>
-      <c r="Q69" s="5"/>
-      <c r="R69" s="5"/>
-    </row>
-    <row r="70" spans="1:18">
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70" s="2"/>
       <c r="B70" s="4"/>
       <c r="C70" s="5"/>
@@ -2932,15 +2012,8 @@
       <c r="I70" s="6"/>
       <c r="J70" s="6"/>
       <c r="K70" s="6"/>
-      <c r="L70" s="6"/>
-      <c r="M70" s="5"/>
-      <c r="N70" s="5"/>
-      <c r="O70" s="5"/>
-      <c r="P70" s="5"/>
-      <c r="Q70" s="5"/>
-      <c r="R70" s="5"/>
-    </row>
-    <row r="71" spans="1:18">
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" s="2"/>
       <c r="B71" s="4"/>
       <c r="C71" s="5"/>
@@ -2952,15 +2025,8 @@
       <c r="I71" s="6"/>
       <c r="J71" s="6"/>
       <c r="K71" s="6"/>
-      <c r="L71" s="6"/>
-      <c r="M71" s="5"/>
-      <c r="N71" s="5"/>
-      <c r="O71" s="5"/>
-      <c r="P71" s="5"/>
-      <c r="Q71" s="5"/>
-      <c r="R71" s="5"/>
-    </row>
-    <row r="72" spans="1:18">
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72" s="2"/>
       <c r="B72" s="4"/>
       <c r="C72" s="5"/>
@@ -2972,15 +2038,8 @@
       <c r="I72" s="6"/>
       <c r="J72" s="6"/>
       <c r="K72" s="6"/>
-      <c r="L72" s="6"/>
-      <c r="M72" s="5"/>
-      <c r="N72" s="5"/>
-      <c r="O72" s="5"/>
-      <c r="P72" s="5"/>
-      <c r="Q72" s="5"/>
-      <c r="R72" s="5"/>
-    </row>
-    <row r="73" spans="1:18">
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73" s="2"/>
       <c r="B73" s="4"/>
       <c r="C73" s="5"/>
@@ -2992,15 +2051,8 @@
       <c r="I73" s="6"/>
       <c r="J73" s="6"/>
       <c r="K73" s="6"/>
-      <c r="L73" s="6"/>
-      <c r="M73" s="5"/>
-      <c r="N73" s="5"/>
-      <c r="O73" s="5"/>
-      <c r="P73" s="5"/>
-      <c r="Q73" s="5"/>
-      <c r="R73" s="5"/>
-    </row>
-    <row r="74" spans="1:18">
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74" s="2"/>
       <c r="B74" s="4"/>
       <c r="C74" s="5"/>
@@ -3012,15 +2064,8 @@
       <c r="I74" s="6"/>
       <c r="J74" s="6"/>
       <c r="K74" s="6"/>
-      <c r="L74" s="6"/>
-      <c r="M74" s="5"/>
-      <c r="N74" s="5"/>
-      <c r="O74" s="5"/>
-      <c r="P74" s="5"/>
-      <c r="Q74" s="5"/>
-      <c r="R74" s="5"/>
-    </row>
-    <row r="75" spans="1:18">
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75" s="2"/>
       <c r="B75" s="4"/>
       <c r="C75" s="5"/>
@@ -3032,15 +2077,8 @@
       <c r="I75" s="6"/>
       <c r="J75" s="6"/>
       <c r="K75" s="6"/>
-      <c r="L75" s="6"/>
-      <c r="M75" s="5"/>
-      <c r="N75" s="5"/>
-      <c r="O75" s="5"/>
-      <c r="P75" s="5"/>
-      <c r="Q75" s="5"/>
-      <c r="R75" s="5"/>
-    </row>
-    <row r="76" spans="1:18">
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76" s="2"/>
       <c r="B76" s="4"/>
       <c r="C76" s="5"/>
@@ -3052,15 +2090,8 @@
       <c r="I76" s="6"/>
       <c r="J76" s="6"/>
       <c r="K76" s="6"/>
-      <c r="L76" s="6"/>
-      <c r="M76" s="5"/>
-      <c r="N76" s="5"/>
-      <c r="O76" s="5"/>
-      <c r="P76" s="5"/>
-      <c r="Q76" s="5"/>
-      <c r="R76" s="5"/>
-    </row>
-    <row r="77" spans="1:18">
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77" s="2"/>
       <c r="B77" s="4"/>
       <c r="C77" s="5"/>
@@ -3072,15 +2103,8 @@
       <c r="I77" s="6"/>
       <c r="J77" s="6"/>
       <c r="K77" s="6"/>
-      <c r="L77" s="6"/>
-      <c r="M77" s="5"/>
-      <c r="N77" s="5"/>
-      <c r="O77" s="5"/>
-      <c r="P77" s="5"/>
-      <c r="Q77" s="5"/>
-      <c r="R77" s="5"/>
-    </row>
-    <row r="78" spans="1:18">
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78" s="2"/>
       <c r="B78" s="4"/>
       <c r="C78" s="5"/>
@@ -3092,15 +2116,8 @@
       <c r="I78" s="6"/>
       <c r="J78" s="6"/>
       <c r="K78" s="6"/>
-      <c r="L78" s="6"/>
-      <c r="M78" s="5"/>
-      <c r="N78" s="5"/>
-      <c r="O78" s="5"/>
-      <c r="P78" s="5"/>
-      <c r="Q78" s="5"/>
-      <c r="R78" s="5"/>
-    </row>
-    <row r="79" spans="1:18">
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79" s="2"/>
       <c r="B79" s="4"/>
       <c r="C79" s="5"/>
@@ -3112,15 +2129,8 @@
       <c r="I79" s="6"/>
       <c r="J79" s="6"/>
       <c r="K79" s="6"/>
-      <c r="L79" s="6"/>
-      <c r="M79" s="5"/>
-      <c r="N79" s="5"/>
-      <c r="O79" s="5"/>
-      <c r="P79" s="5"/>
-      <c r="Q79" s="5"/>
-      <c r="R79" s="5"/>
-    </row>
-    <row r="80" spans="1:18">
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80" s="2"/>
       <c r="B80" s="4"/>
       <c r="C80" s="5"/>
@@ -3132,15 +2142,8 @@
       <c r="I80" s="6"/>
       <c r="J80" s="6"/>
       <c r="K80" s="6"/>
-      <c r="L80" s="6"/>
-      <c r="M80" s="5"/>
-      <c r="N80" s="5"/>
-      <c r="O80" s="5"/>
-      <c r="P80" s="5"/>
-      <c r="Q80" s="5"/>
-      <c r="R80" s="5"/>
-    </row>
-    <row r="81" spans="1:18">
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81" s="2"/>
       <c r="B81" s="4"/>
       <c r="C81" s="5"/>
@@ -3152,15 +2155,8 @@
       <c r="I81" s="6"/>
       <c r="J81" s="6"/>
       <c r="K81" s="6"/>
-      <c r="L81" s="6"/>
-      <c r="M81" s="5"/>
-      <c r="N81" s="5"/>
-      <c r="O81" s="5"/>
-      <c r="P81" s="5"/>
-      <c r="Q81" s="5"/>
-      <c r="R81" s="5"/>
-    </row>
-    <row r="82" spans="1:18">
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82" s="2"/>
       <c r="B82" s="4"/>
       <c r="C82" s="5"/>
@@ -3172,15 +2168,8 @@
       <c r="I82" s="6"/>
       <c r="J82" s="6"/>
       <c r="K82" s="6"/>
-      <c r="L82" s="6"/>
-      <c r="M82" s="5"/>
-      <c r="N82" s="5"/>
-      <c r="O82" s="5"/>
-      <c r="P82" s="5"/>
-      <c r="Q82" s="5"/>
-      <c r="R82" s="5"/>
-    </row>
-    <row r="83" spans="1:18">
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83" s="2"/>
       <c r="B83" s="4"/>
       <c r="C83" s="5"/>
@@ -3192,15 +2181,8 @@
       <c r="I83" s="6"/>
       <c r="J83" s="6"/>
       <c r="K83" s="6"/>
-      <c r="L83" s="6"/>
-      <c r="M83" s="5"/>
-      <c r="N83" s="5"/>
-      <c r="O83" s="5"/>
-      <c r="P83" s="5"/>
-      <c r="Q83" s="5"/>
-      <c r="R83" s="5"/>
-    </row>
-    <row r="84" spans="1:18">
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84" s="2"/>
       <c r="B84" s="4"/>
       <c r="C84" s="5"/>
@@ -3212,15 +2194,8 @@
       <c r="I84" s="6"/>
       <c r="J84" s="6"/>
       <c r="K84" s="6"/>
-      <c r="L84" s="6"/>
-      <c r="M84" s="5"/>
-      <c r="N84" s="5"/>
-      <c r="O84" s="5"/>
-      <c r="P84" s="5"/>
-      <c r="Q84" s="5"/>
-      <c r="R84" s="5"/>
-    </row>
-    <row r="85" spans="1:18">
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85" s="2"/>
       <c r="B85" s="4"/>
       <c r="C85" s="5"/>
@@ -3232,41 +2207,34 @@
       <c r="I85" s="6"/>
       <c r="J85" s="6"/>
       <c r="K85" s="6"/>
-      <c r="L85" s="6"/>
-      <c r="M85" s="5"/>
-      <c r="N85" s="5"/>
-      <c r="O85" s="5"/>
-      <c r="P85" s="5"/>
-      <c r="Q85" s="5"/>
-      <c r="R85" s="5"/>
-    </row>
-    <row r="86" spans="1:18">
+    </row>
+    <row r="86" spans="1:11">
+      <c r="A86" s="2"/>
       <c r="B86" s="4"/>
       <c r="C86" s="5"/>
       <c r="D86" s="5"/>
       <c r="E86" s="5"/>
       <c r="F86" s="4"/>
-      <c r="G86" s="12"/>
-      <c r="H86" s="12"/>
-      <c r="I86" s="12"/>
-      <c r="J86" s="12"/>
-      <c r="K86" s="12"/>
-      <c r="L86" s="12"/>
-    </row>
-    <row r="87" spans="1:18">
+      <c r="G86" s="6"/>
+      <c r="H86" s="6"/>
+      <c r="I86" s="6"/>
+      <c r="J86" s="6"/>
+      <c r="K86" s="6"/>
+    </row>
+    <row r="87" spans="1:11">
+      <c r="A87" s="2"/>
       <c r="B87" s="4"/>
       <c r="C87" s="5"/>
       <c r="D87" s="5"/>
       <c r="E87" s="5"/>
       <c r="F87" s="4"/>
-      <c r="G87" s="12"/>
-      <c r="H87" s="12"/>
-      <c r="I87" s="12"/>
-      <c r="J87" s="12"/>
-      <c r="K87" s="12"/>
-      <c r="L87" s="12"/>
-    </row>
-    <row r="88" spans="1:18">
+      <c r="G87" s="6"/>
+      <c r="H87" s="6"/>
+      <c r="I87" s="6"/>
+      <c r="J87" s="6"/>
+      <c r="K87" s="6"/>
+    </row>
+    <row r="88" spans="1:11">
       <c r="B88" s="4"/>
       <c r="C88" s="5"/>
       <c r="D88" s="5"/>
@@ -3277,9 +2245,8 @@
       <c r="I88" s="12"/>
       <c r="J88" s="12"/>
       <c r="K88" s="12"/>
-      <c r="L88" s="12"/>
-    </row>
-    <row r="89" spans="1:18">
+    </row>
+    <row r="89" spans="1:11">
       <c r="B89" s="4"/>
       <c r="C89" s="5"/>
       <c r="D89" s="5"/>
@@ -3290,9 +2257,8 @@
       <c r="I89" s="12"/>
       <c r="J89" s="12"/>
       <c r="K89" s="12"/>
-      <c r="L89" s="12"/>
-    </row>
-    <row r="90" spans="1:18">
+    </row>
+    <row r="90" spans="1:11">
       <c r="B90" s="4"/>
       <c r="C90" s="5"/>
       <c r="D90" s="5"/>
@@ -3303,9 +2269,8 @@
       <c r="I90" s="12"/>
       <c r="J90" s="12"/>
       <c r="K90" s="12"/>
-      <c r="L90" s="12"/>
-    </row>
-    <row r="91" spans="1:18">
+    </row>
+    <row r="91" spans="1:11">
       <c r="B91" s="4"/>
       <c r="C91" s="5"/>
       <c r="D91" s="5"/>
@@ -3316,9 +2281,8 @@
       <c r="I91" s="12"/>
       <c r="J91" s="12"/>
       <c r="K91" s="12"/>
-      <c r="L91" s="12"/>
-    </row>
-    <row r="92" spans="1:18">
+    </row>
+    <row r="92" spans="1:11">
       <c r="B92" s="4"/>
       <c r="C92" s="5"/>
       <c r="D92" s="5"/>
@@ -3329,9 +2293,8 @@
       <c r="I92" s="12"/>
       <c r="J92" s="12"/>
       <c r="K92" s="12"/>
-      <c r="L92" s="12"/>
-    </row>
-    <row r="93" spans="1:18">
+    </row>
+    <row r="93" spans="1:11">
       <c r="B93" s="4"/>
       <c r="C93" s="5"/>
       <c r="D93" s="5"/>
@@ -3342,9 +2305,8 @@
       <c r="I93" s="12"/>
       <c r="J93" s="12"/>
       <c r="K93" s="12"/>
-      <c r="L93" s="12"/>
-    </row>
-    <row r="94" spans="1:18">
+    </row>
+    <row r="94" spans="1:11">
       <c r="B94" s="4"/>
       <c r="C94" s="5"/>
       <c r="D94" s="5"/>
@@ -3355,9 +2317,8 @@
       <c r="I94" s="12"/>
       <c r="J94" s="12"/>
       <c r="K94" s="12"/>
-      <c r="L94" s="12"/>
-    </row>
-    <row r="95" spans="1:18">
+    </row>
+    <row r="95" spans="1:11">
       <c r="B95" s="4"/>
       <c r="C95" s="5"/>
       <c r="D95" s="5"/>
@@ -3368,9 +2329,8 @@
       <c r="I95" s="12"/>
       <c r="J95" s="12"/>
       <c r="K95" s="12"/>
-      <c r="L95" s="12"/>
-    </row>
-    <row r="96" spans="1:18">
+    </row>
+    <row r="96" spans="1:11">
       <c r="B96" s="4"/>
       <c r="C96" s="5"/>
       <c r="D96" s="5"/>
@@ -3381,12 +2341,40 @@
       <c r="I96" s="12"/>
       <c r="J96" s="12"/>
       <c r="K96" s="12"/>
-      <c r="L96" s="12"/>
+    </row>
+    <row r="97" spans="2:11">
+      <c r="B97" s="4"/>
+      <c r="C97" s="5"/>
+      <c r="D97" s="5"/>
+      <c r="E97" s="5"/>
+      <c r="F97" s="4"/>
+      <c r="G97" s="12"/>
+      <c r="H97" s="12"/>
+      <c r="I97" s="12"/>
+      <c r="J97" s="12"/>
+      <c r="K97" s="12"/>
+    </row>
+    <row r="98" spans="2:11">
+      <c r="B98" s="4"/>
+      <c r="C98" s="5"/>
+      <c r="D98" s="5"/>
+      <c r="E98" s="5"/>
+      <c r="F98" s="4"/>
+      <c r="G98" s="12"/>
+      <c r="H98" s="12"/>
+      <c r="I98" s="12"/>
+      <c r="J98" s="12"/>
+      <c r="K98" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200"/>
+  <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>